--- a/input/raw_data/final_report/bias_assessment_case_series_end.xlsx
+++ b/input/raw_data/final_report/bias_assessment_case_series_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D203B-3C49-8C41-9085-BCF28F0B96E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623463D-7E1E-DF40-975C-B7BDB3D2EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20580" yWindow="880" windowWidth="20560" windowHeight="24440" xr2:uid="{2EF234BE-2A19-EE48-AF33-412A086BBDEA}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/final_report/bias_assessment_case_series_end.xlsx
+++ b/input/raw_data/final_report/bias_assessment_case_series_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623463D-7E1E-DF40-975C-B7BDB3D2EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCF91C5-4438-9647-9D3D-454C19C4CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="880" windowWidth="20560" windowHeight="24440" xr2:uid="{2EF234BE-2A19-EE48-AF33-412A086BBDEA}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24440" xr2:uid="{2EF234BE-2A19-EE48-AF33-412A086BBDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="case_series_bias_data_start" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Study_ID</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>No comment.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>To investigate the time interval between foreign object ingestion and the visit to the ER, the locations, kinds and sizes of foreign objects, the methods of foreign object removal, complications of endoscopic management and the combined disorders of the prisoners.</t>
+  </si>
+  <si>
+    <t>Reviewed the medical records and endoscopic findings of 33 prisoners (52 episodes) who were admitted due to ingestion of foreign objects  between January 1998 and June 2004 to either Konyang University Hospital or Gyeongsang National University Hospital.</t>
+  </si>
+  <si>
+    <t>Prisoners attended two hospitals in South Korea.</t>
+  </si>
+  <si>
+    <t>All the patients were male with a mean age of 35 years. The most common duration from ingestion to the visit to the ER was within 24 hours (25/52 episodes). Most of the foreign objects were located in the esophagus (42.3%) and stomach (42.3%). The number of foreign objects was one in 28 episodes, two in 12 episodes and three or more in twelve episodes. The most common foreign objects were metal wires (26/52 episodes). The mean size of the foreign objects was 11.9 centimeters long. Successful endoscopic treatment was performed in most patients (46/52 episodes, 88.5%). The remaining six cases were treated surgically.</t>
+  </si>
+  <si>
+    <t>The foreign objects in prisoners were a variety of unusual things because of the prison environment, and endoscopy is a mainstay of treatment for foreign object removal in Korean prisoners.</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C43920-DF72-5944-9ACB-BBE8824D329E}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1459,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1453,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1468,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
@@ -1480,21 +1498,83 @@
         <v>16</v>
       </c>
       <c r="N21" s="2">
-        <v>45791</v>
+        <v>45810</v>
       </c>
       <c r="O21" t="s">
         <v>38</v>
       </c>
       <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>646</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="2">
+        <v>45791</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q22" t="s">
         <v>34</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S22" t="s">
         <v>35</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T22" t="s">
         <v>36</v>
       </c>
     </row>
